--- a/templates/sucai/films.xlsx
+++ b/templates/sucai/films.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>https://www.ugc.fr/dynamique/films/24/11924/fr/poster/large/4837499_white.jpg</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Les héros du Réveil de la force rejoignent les figures légendaires de la galaxie dans une aventure épique qui révèle des secrets ancestraux sur la Force et entraîne de surprenantes révélations sur le passé…</t>
   </si>
   <si>
-    <t>https://www.ugc.fr/dynamique/films/80/11880/fr/poster/large/2061488_white.jpg</t>
-  </si>
-  <si>
     <t>MAZINGER Z INFINITY</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
     <t>Dix ans sont passés depuis que Kôji Kabuto (Alcor), aux commandes du super robot Mazinger Z, créé par son grand-père, a ramené la paix en combattant l’Empire des Ténèbres et le maléfique Dr Hell. Aujourd’hui, Kôji Kabuto n’est plus pilote, il a pris le chemin de son père et grand-père en devenant scientifique. A l’occasion de ses recherches, il découvre une structure gigantesque profondément enterrée sous le mont Fuji. Il détecte de mystérieux signes de vie. Il s’en suit de nouvelles rencontres, de nouvelles menaces et bientôt, un nouveau destin pour l’humanité. Kôji Kabuto doit prendre une décision pour l’avenir : Dieu ou Démon, il lui faut choisir. Une nouvelle fois, c’est à MAZINGER Z que revient la lourde charge de sauver le monde.</t>
   </si>
   <si>
-    <t>https://www.ugc.fr/dynamique/films/03/11903/fr/poster/large/4889519_white.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ugc.fr/dynamique/films/13/11913/fr/poster/large/3025573_white.jpg</t>
-  </si>
-  <si>
     <t>JIGSAW</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>KINGSMAN, l’élite du renseignement britannique en costume trois pièces, fait face à une menace sans précédent. Alors qu’une bombe s’abat et détruit leur quartier général, les agents font la découverte d’une puissante organisation alliée nommée Statesman, fondée il y a bien longtemps aux Etats-Unis.Face à cet ultime danger, les deux services d’élite n’auront d’autre choix que de réunir leurs forces pour sauver le monde des griffes d’un impitoyable ennemi, qui ne reculera devant rien dans sa quête destructrice.</t>
   </si>
   <si>
-    <t>https://www.ugc.fr/dynamique/films/48/11848/fr/poster/large/1229952_white.jpg</t>
-  </si>
-  <si>
     <t>THOR RAGNAROK</t>
   </si>
   <si>
@@ -118,7 +103,22 @@
     <t>Privé de son puissant marteau, Thor est retenu prisonnier sur une lointaine planète aux confins de l’univers. Pour sauver Asgard, il va devoir lutter contre le temps afin d’empêcher l’impitoyable Hela d’accomplir le Ragnarök – la destruction de son monde et la fin de la civilisation asgardienne. Mais pour y parvenir, il va d’abord devoir mener un combat titanesque de gladiateurs contre celui qui était autrefois son allié au sein des Avengers : l’incroyable Hulk…</t>
   </si>
   <si>
-    <t>https://www.ugc.fr/dynamique/films/43/11843/fr/poster/large/098917_white.jpg</t>
+    <t>images/4837499_white.jpg</t>
+  </si>
+  <si>
+    <t>images/2061488_white.jpg</t>
+  </si>
+  <si>
+    <t>images/4889519_white.jpg</t>
+  </si>
+  <si>
+    <t>images/3025573_white.jpg</t>
+  </si>
+  <si>
+    <t>images/1229952_white.jpg</t>
+  </si>
+  <si>
+    <t>images/098917_white.jpg</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,118 +485,118 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -604,12 +604,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.ugc.fr/dynamique/films/24/11924/fr/poster/large/4837499_white.jpg"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.ugc.fr/dynamique/films/80/11880/fr/poster/large/2061488_white.jpg"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.ugc.fr/dynamique/films/03/11903/fr/poster/large/4889519_white.jpg"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.ugc.fr/dynamique/films/13/11913/fr/poster/large/3025573_white.jpg"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.ugc.fr/dynamique/films/48/11848/fr/poster/large/1229952_white.jpg"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.ugc.fr/dynamique/films/43/11843/fr/poster/large/098917_white.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
